--- a/biology/Botanique/Hortus_(homonymie)/Hortus_(homonymie).xlsx
+++ b/biology/Botanique/Hortus_(homonymie)/Hortus_(homonymie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -514,7 +526,9 @@
           <t>Topographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hortus, une montagne du Sud de la France.</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Formes historiques ou actuelle de jardins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Horti, jardin romain somptueux
 Hortus, c'est l'un des quatre éléments structurant le paysage agricole médiéval (ager, saltus, hortus, silva).
@@ -576,7 +592,9 @@
           <t>Jardins botaniques, médicinaux ou reconstitués</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Horti Tauriani, ensemble de jardins à Rome sous l'Antiquité.
 Horti Aciliorum, des jardins de la ville de Rome créés au IIe siècle.
@@ -612,7 +630,9 @@
           <t>Traités sur les jardins ou la botanique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hortus Cliffortianus, traité de botanique de Carl von Linné, daté de 1737.
 Hortus Romanus, traité de botanique en huit volumes, publié à Rome entre 1772-1793.
@@ -644,7 +664,9 @@
           <t>Traités ou thèmes religieux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hortus deliciarum, encyclopédie réalisée entre 1159 et 1175 par Herrade de Landsberg et les moniales du couvent de Hohenbourg.
 Hortus conclusus, thème iconographique de l'art religieux européen au Moyen-Âge.</t>
@@ -675,7 +697,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Hortus Musicus, un orchestre estonien.
 Éditions Hortus, entreprise française de production de disques.</t>
